--- a/Задачи по сайту.xlsx
+++ b/Задачи по сайту.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dkfolkin/Desktop/Клининг сайт/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dkfolkin/clean-landing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="ЗАДАЧИ" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>СПИСОК ЗАДАЧ</t>
   </si>
@@ -84,13 +84,36 @@
   </si>
   <si>
     <t>Нарисовать бренд(придумать название)</t>
+  </si>
+  <si>
+    <r>
+      <t>1)Сlean+ 2)Total Clean 3)Clean Me 4)Clean Lite 5) Clean Dom  6) CleanOK(домен занят, но можно прописать spb) 7) CleanTime 8) CleanSys.ru 9) CleanCare 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="4" tint="0.39991454817346722"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">CleanService </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="4" tint="0.39991454817346722"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11)Clean Star 12) CleanBro 13)CleanWell (домен не занят, есть мутная франшиза) CleanWeek 14) cleanshine 15) bubbleclean 16) CleanSeason 17) CleanFresh 18) Clean Home 19)Сити Клин 19)Clean Komfort 20) clickandclean.ru 21) cleanclick.ru (чистота в доме за один клик!)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="4" tint="0.39991454817346722"/>
@@ -128,6 +151,11 @@
       <name val="Courier New"/>
       <family val="3"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="4" tint="0.39991454817346722"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -541,8 +569,8 @@
   </sheetPr>
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -604,18 +632,22 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="251" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
       <c r="F4" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -628,11 +660,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -647,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
@@ -681,10 +713,12 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
       <c r="F9" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -692,10 +726,12 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
       <c r="F10" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2"/>
     </row>

--- a/Задачи по сайту.xlsx
+++ b/Задачи по сайту.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="ЗАДАЧИ" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>СПИСОК ЗАДАЧ</t>
   </si>
@@ -107,6 +107,12 @@
       </rPr>
       <t>11)Clean Star 12) CleanBro 13)CleanWell (домен не занят, есть мутная франшиза) CleanWeek 14) cleanshine 15) bubbleclean 16) CleanSeason 17) CleanFresh 18) Clean Home 19)Сити Клин 19)Clean Komfort 20) clickandclean.ru 21) cleanclick.ru (чистота в доме за один клик!)</t>
     </r>
+  </si>
+  <si>
+    <t>Создать группу в VK</t>
+  </si>
+  <si>
+    <t>Накидать отзывы</t>
   </si>
 </sst>
 </file>
@@ -339,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:G12" totalsRowShown="0">
-  <autoFilter ref="B2:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:G13" totalsRowShown="0">
+  <autoFilter ref="B2:G13"/>
   <tableColumns count="6">
     <tableColumn id="1" name="МОИ ЗАДАЧИ" dataDxfId="3"/>
     <tableColumn id="4" name="ДАТА НАЧАЛА"/>
@@ -567,10 +573,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -687,20 +693,24 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="7" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="7">
@@ -709,22 +719,20 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7">
+        <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -737,18 +745,20 @@
     </row>
     <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
       <c r="F11" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="7">
@@ -757,8 +767,19 @@
       </c>
       <c r="G12" s="2"/>
     </row>
+    <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7">
+        <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E12">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -773,7 +794,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Этого значения нет в списке." error="Выберите значение из списка." sqref="E3:E12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Этого значения нет в списке." error="Выберите значение из списка." sqref="E3:E13">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -804,7 +825,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E12</xm:sqref>
+          <xm:sqref>E3:E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
@@ -823,7 +844,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F3:F12</xm:sqref>
+          <xm:sqref>F3:F13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Задачи по сайту.xlsx
+++ b/Задачи по сайту.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="ЗАДАЧИ" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -712,10 +712,12 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
       <c r="F8" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -723,10 +725,12 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
       <c r="F9" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -760,10 +764,12 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
       <c r="F12" s="7">
         <f>--(Таблица1[[#This Row],[ПРОЦЕНТ ЗАВЕРШЕНИЯ]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2"/>
     </row>
